--- a/ExcelWord/関数＿変数＿仕様.xlsx
+++ b/ExcelWord/関数＿変数＿仕様.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ertydrinkk\Desktop\parinezumi\Excel_Word\PGファイル\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20340" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20340" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="関数" sheetId="1" r:id="rId1"/>
     <sheet name="変数" sheetId="2" r:id="rId2"/>
     <sheet name="定義" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">変数!$B$5:$J$237</definedName>
+  </definedNames>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="239">
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="2">
@@ -271,22 +269,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TITLE_SCENE</t>
-  </si>
-  <si>
-    <t>STAGE_SELECT_SCENE</t>
-  </si>
-  <si>
-    <t>GAME_SCENE</t>
-  </si>
-  <si>
-    <t>RESULT_SCENE</t>
-  </si>
-  <si>
     <t>SCENE_MAX</t>
-  </si>
-  <si>
-    <t>TITLE_BACKGROUND_TEX</t>
   </si>
   <si>
     <t>TEX_MAX</t>
@@ -640,17 +623,914 @@
   </si>
   <si>
     <t>マスターアップまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAP_HEIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウの名前</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解放マクロ</t>
+    <rPh sb="0" eb="2">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦に並べるマップチップ数</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAP_WIDTH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横に並べるマップチップ数</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIP_SIZE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップチップの大きさ</t>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRAVITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重力加速度</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logo.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴの描画関数</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴのコントロール関数</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title_Render</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの描画関数</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title_Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルのコントロール関数</t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage_select.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトの描画関数</t>
+    <rPh sb="9" eb="11">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage_Select_Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage_Select_Render</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logo_Render</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logo_Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトのコントロール関数</t>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map_Hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一引数にx座標　第二引数にy座標を入れると　その座標にブロックがあるかを判定してくれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map_Search</t>
+  </si>
+  <si>
+    <t>int*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一引数にx座標　第二引数にy座標を入れると　第三引数にxのチップ数　第四引数にyのチップ数が入る。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義cpp</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pDS8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDirectSound8*</t>
+  </si>
+  <si>
+    <t>pDSBuffer</t>
+  </si>
+  <si>
+    <t>IDirectSoundBuffer8*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDirectsound8のインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDirectsoundBuffer8のインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_scene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーンの状態を保存しておく変数</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map[MAP_HEIGHT][MAP_WIDTH]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvで読み込んだ情報を保存する配列</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heart_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリネズミの体力を保存する変数</t>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリネズミの腹減りを保存する変数</t>
+    <rPh sb="6" eb="7">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map_error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのスクロール時の移動量を保存する変数</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned　int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内時間の保存</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isGame1_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1が始まった時に初期化するためのフラグ</t>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isGame2_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2が始まった時に初期化するためのフラグ</t>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>death_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fall_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下時の時間</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプした時の初速</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isjump_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプするかのフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jump_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地した後の硬直時間</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cooltime_Thunder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷のクールタイム管理変数</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thunder_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷の描画時間</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isThunder_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷が起きるかのフラグ</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init_Thunder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷の初期化フラグ</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_Thunder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷が何度使われたかを格納する変数　スコア集計に使う</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cooltime_Wind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風のクールタイム管理変数</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isWind_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風が起きるかのフラグ</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init_Wind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風の初期化フラグ</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_Wind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風が何度使われたかを格納する変数　スコア集計に使う</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wind_v0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風で舞い上がる時の初速</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神様が行動しているかのフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カミサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEYSTATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーの状態を格納する変数</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUSTOMVERTEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面の背景に使うCUSTIMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルカーソルのCUSTOMVERTEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_select</t>
+  </si>
+  <si>
+    <t>map_tip</t>
+  </si>
+  <si>
+    <t>マップチップのCUSTOMVERTEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_chara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面のハリネズミのCUSTOMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_ui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_ui_apple</t>
+  </si>
+  <si>
+    <t>game_ui_heart</t>
+  </si>
+  <si>
+    <t>ゲーム画面UIでのリンゴのCUSTOMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面UIでの背景のCUSTOMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面UIでのハートのCUSTOMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,7 +1841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,28 +1893,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,10 +2015,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1164,7 +2049,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1340,14 +2224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BK58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K4"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -1356,32 +2240,32 @@
     <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H3" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="18"/>
+    <row r="2" spans="2:14" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:14" ht="14.25" customHeight="1">
+      <c r="H3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="24"/>
       <c r="J3" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>26</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" thickBot="1">
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" thickBot="1"/>
+    <row r="7" spans="2:14" ht="14.25" thickBot="1">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1410,10 +2294,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>2</v>
@@ -1422,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" ht="14.25" thickTop="1">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -1430,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
@@ -1457,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1465,7 +2349,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1492,7 +2376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1500,7 +2384,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1519,27 +2403,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1549,21 +2433,21 @@
         <v>28</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1576,24 +2460,24 @@
         <v>28</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1602,27 +2486,27 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1633,24 +2517,24 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1660,24 +2544,24 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1687,30 +2571,30 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -1720,65 +2604,65 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>32</v>
@@ -1792,30 +2676,30 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1823,24 +2707,24 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>32</v>
@@ -1849,31 +2733,31 @@
         <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="2">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>32</v>
@@ -1885,24 +2769,24 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="2">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
@@ -1914,24 +2798,24 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="2">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1941,24 +2825,24 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="2">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1968,24 +2852,24 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1995,24 +2879,24 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2025,16 +2909,22 @@
         <v>28</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2042,16 +2932,26 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2059,16 +2959,26 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2076,16 +2986,26 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2093,16 +3013,26 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2110,16 +3040,26 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="7">
         <v>26</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2127,44 +3067,80 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -2181,7 +3157,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14">
       <c r="B37" s="2">
         <v>30</v>
       </c>
@@ -2198,7 +3174,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14">
       <c r="B38" s="7">
         <v>31</v>
       </c>
@@ -2215,7 +3191,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14">
       <c r="B39" s="2">
         <v>32</v>
       </c>
@@ -2232,7 +3208,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14">
       <c r="B40" s="2">
         <v>33</v>
       </c>
@@ -2249,7 +3225,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14">
       <c r="B41" s="2">
         <v>34</v>
       </c>
@@ -2266,7 +3242,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14">
       <c r="B42" s="2">
         <v>35</v>
       </c>
@@ -2283,7 +3259,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14">
       <c r="B43" s="2">
         <v>36</v>
       </c>
@@ -2300,7 +3276,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14">
       <c r="B44" s="2">
         <v>37</v>
       </c>
@@ -2317,7 +3293,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14">
       <c r="B45" s="2">
         <v>38</v>
       </c>
@@ -2334,7 +3310,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14">
       <c r="B46" s="2">
         <v>39</v>
       </c>
@@ -2351,7 +3327,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14">
       <c r="B47" s="2">
         <v>40</v>
       </c>
@@ -2368,7 +3344,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14">
       <c r="B48" s="2">
         <v>41</v>
       </c>
@@ -2385,7 +3361,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:63">
       <c r="B49" s="2">
         <v>42</v>
       </c>
@@ -2402,7 +3378,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:63">
       <c r="B50" s="2">
         <v>43</v>
       </c>
@@ -2419,7 +3395,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:63">
       <c r="B51" s="2">
         <v>44</v>
       </c>
@@ -2436,7 +3412,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:63">
       <c r="B52" s="2">
         <v>45</v>
       </c>
@@ -2474,7 +3450,7 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
     </row>
-    <row r="53" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:63">
       <c r="B53" s="2">
         <v>46</v>
       </c>
@@ -2512,7 +3488,7 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="15"/>
     </row>
-    <row r="54" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:63">
       <c r="B54" s="2">
         <v>47</v>
       </c>
@@ -2570,7 +3546,7 @@
       <c r="BC54" s="15"/>
       <c r="BD54" s="15"/>
     </row>
-    <row r="55" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:63">
       <c r="B55" s="2">
         <v>48</v>
       </c>
@@ -2628,7 +3604,7 @@
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
     </row>
-    <row r="56" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:63">
       <c r="B56" s="2">
         <v>49</v>
       </c>
@@ -2686,7 +3662,7 @@
       <c r="BC56" s="15"/>
       <c r="BD56" s="15"/>
     </row>
-    <row r="57" spans="2:63" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:63" ht="14.25" thickBot="1">
       <c r="B57" s="4">
         <v>50</v>
       </c>
@@ -2752,7 +3728,7 @@
       <c r="BJ57" s="14"/>
       <c r="BK57" s="14"/>
     </row>
-    <row r="58" spans="2:63" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:63">
       <c r="AJ58" s="15"/>
       <c r="AK58" s="15"/>
       <c r="AL58" s="15"/>
@@ -2787,416 +3763,3621 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19">
+    <row r="1" spans="2:10" ht="28.5">
+      <c r="B1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>26</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="29.25" thickBot="1">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:10" ht="13.5" customHeight="1"/>
+    <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="5" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
+    <row r="6" spans="2:10" ht="14.25" thickTop="1">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="2">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="7">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="2">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="2">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="2">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="7">
+        <v>31</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="2">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="2">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="7">
+        <v>36</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="2">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="2">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="7">
+        <v>41</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="2">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="2">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="2">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>25</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="2">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="7">
+        <v>46</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="2">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="2">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="2">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="7">
+        <v>51</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="2">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="2">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="2">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="2">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="7">
+        <v>56</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="2">
+        <v>57</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="2">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="2">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="7">
+        <v>61</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="2">
+        <v>62</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="2">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="2">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="2">
+        <v>65</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="7">
+        <v>66</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="2">
+        <v>67</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="2">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="2">
+        <v>69</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="2">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="7">
+        <v>71</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="2">
+        <v>72</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="2">
+        <v>73</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="2">
+        <v>74</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="2">
+        <v>75</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="7">
+        <v>76</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="2">
+        <v>77</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="2">
+        <v>78</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="2">
+        <v>79</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="2">
+        <v>80</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="7">
+        <v>81</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="2">
+        <v>82</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="2">
+        <v>83</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="2">
+        <v>84</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="2">
+        <v>85</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="7">
+        <v>86</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="2">
+        <v>87</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="2">
+        <v>88</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="2">
+        <v>89</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="2">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="7">
+        <v>91</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="2">
+        <v>92</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="2">
+        <v>93</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="2">
+        <v>94</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="2">
+        <v>95</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="7">
+        <v>96</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="2">
+        <v>97</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="2">
+        <v>98</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="2">
+        <v>99</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="2">
+        <v>100</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="7">
+        <v>101</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="2">
+        <v>102</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="2">
+        <v>103</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="2">
+        <v>104</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="2">
+        <v>105</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="7">
+        <v>106</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="2">
+        <v>107</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="2">
+        <v>108</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="2">
+        <v>109</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="2">
+        <v>110</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="7">
+        <v>111</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="2">
+        <v>112</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="2">
+        <v>114</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="2">
+        <v>115</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="7">
+        <v>116</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="2">
+        <v>117</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="2">
+        <v>118</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="2">
+        <v>119</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="2">
+        <v>120</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="7">
+        <v>121</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="2">
+        <v>122</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="2">
+        <v>123</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="2">
+        <v>124</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="2">
+        <v>125</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="7">
+        <v>126</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="2">
+        <v>127</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="2">
+        <v>128</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="2">
+        <v>129</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="2">
+        <v>130</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="7">
+        <v>131</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="2">
+        <v>132</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="2">
+        <v>133</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="2">
+        <v>134</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="2">
+        <v>135</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="7">
+        <v>136</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="2">
+        <v>137</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="2">
+        <v>138</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="2">
+        <v>139</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="2">
+        <v>140</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="7">
+        <v>141</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="2">
+        <v>142</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="2">
+        <v>143</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="2">
+        <v>144</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="2">
+        <v>145</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="7">
+        <v>146</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="2">
+        <v>147</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="2">
+        <v>148</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="2">
+        <v>149</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="2">
+        <v>150</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="7">
+        <v>151</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="2">
+        <v>152</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="2">
+        <v>153</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="2">
+        <v>154</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="2">
+        <v>155</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="7">
+        <v>156</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="2">
+        <v>157</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="2">
+        <v>158</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="2">
+        <v>159</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="2">
+        <v>160</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="7">
+        <v>161</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="2">
+        <v>162</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="2">
+        <v>163</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="2">
+        <v>164</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="2">
+        <v>165</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="3"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="7">
+        <v>166</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="2">
+        <v>167</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="3"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="2">
+        <v>168</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="2">
+        <v>169</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="2">
+        <v>170</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="7">
+        <v>171</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="2">
+        <v>172</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="3"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="2">
+        <v>173</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="3"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="2">
+        <v>174</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="2">
+        <v>175</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="3"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="7">
+        <v>176</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="2">
+        <v>177</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="B183" s="2">
+        <v>178</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="2">
+        <v>179</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="2">
+        <v>180</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="7">
+        <v>181</v>
+      </c>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="9"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" s="2">
+        <v>182</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="3"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="2">
+        <v>183</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="3"/>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="2">
+        <v>184</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="3"/>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="2">
+        <v>185</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="3"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="7">
+        <v>186</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="9"/>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="B192" s="2">
+        <v>187</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="3"/>
+    </row>
+    <row r="193" spans="2:10">
+      <c r="B193" s="2">
+        <v>188</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="3"/>
+    </row>
+    <row r="194" spans="2:10">
+      <c r="B194" s="2">
+        <v>189</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="3"/>
+    </row>
+    <row r="195" spans="2:10">
+      <c r="B195" s="2">
+        <v>190</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="3"/>
+    </row>
+    <row r="196" spans="2:10">
+      <c r="B196" s="7">
+        <v>191</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+      <c r="J196" s="9"/>
+    </row>
+    <row r="197" spans="2:10">
+      <c r="B197" s="2">
+        <v>192</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="3"/>
+    </row>
+    <row r="198" spans="2:10">
+      <c r="B198" s="2">
+        <v>193</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="3"/>
+    </row>
+    <row r="199" spans="2:10">
+      <c r="B199" s="2">
+        <v>194</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="3"/>
+    </row>
+    <row r="200" spans="2:10">
+      <c r="B200" s="2">
+        <v>195</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="3"/>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="B201" s="7">
+        <v>196</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="9"/>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="B202" s="2">
+        <v>197</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="3"/>
+    </row>
+    <row r="203" spans="2:10">
+      <c r="B203" s="2">
+        <v>198</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="3"/>
+    </row>
+    <row r="204" spans="2:10">
+      <c r="B204" s="2">
+        <v>199</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="3"/>
+    </row>
+    <row r="205" spans="2:10">
+      <c r="B205" s="2">
+        <v>200</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="3"/>
+    </row>
+    <row r="206" spans="2:10">
+      <c r="B206" s="7">
+        <v>201</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="9"/>
+    </row>
+    <row r="207" spans="2:10">
+      <c r="B207" s="2">
+        <v>202</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="3"/>
+    </row>
+    <row r="208" spans="2:10">
+      <c r="B208" s="2">
+        <v>203</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="3"/>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="B209" s="2">
+        <v>204</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="3"/>
+    </row>
+    <row r="210" spans="2:10">
+      <c r="B210" s="2">
+        <v>205</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="3"/>
+    </row>
+    <row r="211" spans="2:10">
+      <c r="B211" s="7">
+        <v>206</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="9"/>
+    </row>
+    <row r="212" spans="2:10">
+      <c r="B212" s="2">
+        <v>207</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="3"/>
+    </row>
+    <row r="213" spans="2:10">
+      <c r="B213" s="2">
+        <v>208</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="3"/>
+    </row>
+    <row r="214" spans="2:10">
+      <c r="B214" s="2">
+        <v>209</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="3"/>
+    </row>
+    <row r="215" spans="2:10">
+      <c r="B215" s="2">
+        <v>210</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="3"/>
+    </row>
+    <row r="216" spans="2:10">
+      <c r="B216" s="7">
+        <v>211</v>
+      </c>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="9"/>
+    </row>
+    <row r="217" spans="2:10">
+      <c r="B217" s="2">
+        <v>212</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="3"/>
+    </row>
+    <row r="218" spans="2:10">
+      <c r="B218" s="2">
+        <v>213</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="3"/>
+    </row>
+    <row r="219" spans="2:10">
+      <c r="B219" s="2">
+        <v>214</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="3"/>
+    </row>
+    <row r="220" spans="2:10">
+      <c r="B220" s="2">
+        <v>215</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="3"/>
+    </row>
+    <row r="221" spans="2:10">
+      <c r="B221" s="7">
+        <v>216</v>
+      </c>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+      <c r="J221" s="9"/>
+    </row>
+    <row r="222" spans="2:10">
+      <c r="B222" s="2">
+        <v>217</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="3"/>
+    </row>
+    <row r="223" spans="2:10">
+      <c r="B223" s="2">
+        <v>218</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="3"/>
+    </row>
+    <row r="224" spans="2:10">
+      <c r="B224" s="2">
+        <v>219</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="3"/>
+    </row>
+    <row r="225" spans="2:10">
+      <c r="B225" s="2">
+        <v>220</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="3"/>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="B226" s="7">
+        <v>221</v>
+      </c>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+      <c r="H226" s="8"/>
+      <c r="I226" s="8"/>
+      <c r="J226" s="9"/>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="B227" s="2">
+        <v>222</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="3"/>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="B228" s="2">
+        <v>223</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="3"/>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="B229" s="2">
+        <v>224</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="3"/>
+    </row>
+    <row r="230" spans="2:10">
+      <c r="B230" s="2">
+        <v>225</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="3"/>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" s="7">
+        <v>226</v>
+      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+      <c r="J231" s="9"/>
+    </row>
+    <row r="232" spans="2:10">
+      <c r="B232" s="2">
+        <v>227</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="3"/>
+    </row>
+    <row r="233" spans="2:10">
+      <c r="B233" s="2">
+        <v>228</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="3"/>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="B234" s="2">
+        <v>229</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="3"/>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="B235" s="2">
+        <v>230</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="3"/>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="B236" s="7">
+        <v>231</v>
+      </c>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+      <c r="J236" s="9"/>
+    </row>
+    <row r="237" spans="2:10">
+      <c r="B237" s="2">
+        <v>232</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:J237"/>
   <mergeCells count="3">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3205,14 +7386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
@@ -3225,37 +7406,38 @@
     <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="18"/>
+    <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+      <c r="E4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="24"/>
       <c r="G4" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>26</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="8" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" thickBot="1">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.25" thickBot="1">
       <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="14.25" thickBot="1">
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
@@ -3287,69 +7469,68 @@
         <v>43</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="14.25" thickTop="1">
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L11" s="2">
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -3363,10 +7544,17 @@
       <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -3380,10 +7568,17 @@
       <c r="L13" s="2">
         <v>4</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="1">
+        <v>130</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -3397,10 +7592,17 @@
       <c r="L14" s="2">
         <v>5</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="1">
+        <v>32</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="2">
         <v>6</v>
       </c>
@@ -3414,10 +7616,17 @@
       <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="2">
         <v>7</v>
       </c>
@@ -3433,8 +7642,9 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -3450,8 +7660,9 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="2">
         <v>9</v>
       </c>
@@ -3467,8 +7678,9 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="2">
         <v>10</v>
       </c>
@@ -3484,8 +7696,9 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="2">
         <v>11</v>
       </c>
@@ -3501,8 +7714,9 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="2">
         <v>12</v>
       </c>
@@ -3518,8 +7732,9 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="2">
         <v>13</v>
       </c>
@@ -3535,8 +7750,9 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="2">
         <v>14</v>
       </c>
@@ -3552,8 +7768,9 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="2">
         <v>15</v>
       </c>
@@ -3569,8 +7786,9 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" s="2">
         <v>16</v>
       </c>
@@ -3586,8 +7804,9 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" s="2">
         <v>17</v>
       </c>
@@ -3603,6 +7822,7 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ExcelWord/関数＿変数＿仕様.xlsx
+++ b/ExcelWord/関数＿変数＿仕様.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20340" windowHeight="7875" activeTab="1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">変数!$B$5:$J$237</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="264">
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="2">
@@ -1254,10 +1254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>isThunder_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雷が起きるかのフラグ</t>
     <rPh sb="0" eb="1">
       <t>カミナリ</t>
@@ -1519,6 +1515,163 @@
     <t>ゲーム画面UIでのハートのCUSTOMVERTEX</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fruit_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花田</t>
+    <rPh sb="0" eb="2">
+      <t>ハナダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツの描画時間</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cooltime_Fruit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツのクールタイム管理変数</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isThunder_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isFruit_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツの描画フラグ</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use_Fruit</t>
+  </si>
+  <si>
+    <t>フルーツの使用回数を格納する変数　スコア集計に使用</t>
+    <rPh sb="5" eb="9">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fruit_v0</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツの初速</t>
+    <rPh sb="5" eb="7">
+      <t>ショソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_Fruit_x</t>
+  </si>
+  <si>
+    <t>一時的にgame_ui_handの座標を格納</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fruit_flag</t>
+  </si>
+  <si>
+    <t>神様がフルーツを使用しているかのフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カミサマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面の落下するリンゴのCUSTOMVERTEX</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ラッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1526,11 +1679,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1941,7 +2094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2015,6 +2168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2049,6 +2203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2224,14 +2379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BK58"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -2244,28 +2399,28 @@
     <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="3" spans="2:14" ht="14.25" customHeight="1">
+    <row r="2" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H3" s="23" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="14.25" thickBot="1">
+    <row r="4" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H4" s="25"/>
       <c r="I4" s="26"/>
       <c r="J4" s="20"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="6" spans="2:14" ht="14.25" thickBot="1"/>
-    <row r="7" spans="2:14" ht="14.25" thickBot="1">
+    <row r="6" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="14.25" thickTop="1">
+    <row r="8" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -2341,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -2376,7 +2531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -2403,7 +2558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -2436,7 +2591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -2463,7 +2618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -2492,7 +2647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -2523,7 +2678,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -2550,7 +2705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -2577,7 +2732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -2610,7 +2765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -2651,7 +2806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -2682,7 +2837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -2713,7 +2868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -2746,7 +2901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -2775,7 +2930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -2804,7 +2959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -2831,7 +2986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -2858,7 +3013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -2885,7 +3040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -2912,7 +3067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -2939,7 +3094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -2966,7 +3121,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -2993,7 +3148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>24</v>
       </c>
@@ -3020,7 +3175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -3047,7 +3202,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="7">
         <v>26</v>
       </c>
@@ -3074,7 +3229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>27</v>
       </c>
@@ -3105,7 +3260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
@@ -3140,7 +3295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
@@ -3157,7 +3312,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>30</v>
       </c>
@@ -3174,7 +3329,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="7">
         <v>31</v>
       </c>
@@ -3191,7 +3346,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>32</v>
       </c>
@@ -3208,7 +3363,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>33</v>
       </c>
@@ -3225,7 +3380,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>34</v>
       </c>
@@ -3242,7 +3397,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>35</v>
       </c>
@@ -3259,7 +3414,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>36</v>
       </c>
@@ -3276,7 +3431,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>37</v>
       </c>
@@ -3293,7 +3448,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>38</v>
       </c>
@@ -3310,7 +3465,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>39</v>
       </c>
@@ -3327,7 +3482,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>40</v>
       </c>
@@ -3344,7 +3499,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>41</v>
       </c>
@@ -3361,7 +3516,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="2:63">
+    <row r="49" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>42</v>
       </c>
@@ -3378,7 +3533,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="2:63">
+    <row r="50" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>43</v>
       </c>
@@ -3395,7 +3550,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="2:63">
+    <row r="51" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>44</v>
       </c>
@@ -3412,7 +3567,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="2:63">
+    <row r="52" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>45</v>
       </c>
@@ -3450,7 +3605,7 @@
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
     </row>
-    <row r="53" spans="2:63">
+    <row r="53" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>46</v>
       </c>
@@ -3488,7 +3643,7 @@
       <c r="AI53" s="15"/>
       <c r="AJ53" s="15"/>
     </row>
-    <row r="54" spans="2:63">
+    <row r="54" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>47</v>
       </c>
@@ -3546,7 +3701,7 @@
       <c r="BC54" s="15"/>
       <c r="BD54" s="15"/>
     </row>
-    <row r="55" spans="2:63">
+    <row r="55" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>48</v>
       </c>
@@ -3604,7 +3759,7 @@
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
     </row>
-    <row r="56" spans="2:63">
+    <row r="56" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>49</v>
       </c>
@@ -3662,7 +3817,7 @@
       <c r="BC56" s="15"/>
       <c r="BD56" s="15"/>
     </row>
-    <row r="57" spans="2:63" ht="14.25" thickBot="1">
+    <row r="57" spans="2:63" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>50</v>
       </c>
@@ -3728,7 +3883,7 @@
       <c r="BJ57" s="14"/>
       <c r="BK57" s="14"/>
     </row>
-    <row r="58" spans="2:63">
+    <row r="58" spans="2:63" x14ac:dyDescent="0.15">
       <c r="AJ58" s="15"/>
       <c r="AK58" s="15"/>
       <c r="AL58" s="15"/>
@@ -3763,15 +3918,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -3784,7 +3939,7 @@
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="28.5">
+    <row r="1" spans="2:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B1" s="23" t="s">
         <v>114</v>
       </c>
@@ -3792,14 +3947,14 @@
       <c r="D1" s="24"/>
       <c r="E1" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="29.25" thickBot="1">
+    <row r="2" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -3807,9 +3962,9 @@
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="2:10" ht="13.5" customHeight="1"/>
-    <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="5" spans="2:10" ht="14.25" thickBot="1">
+    <row r="3" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="14.25" thickTop="1">
+    <row r="6" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3865,7 +4020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -3892,7 +4047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -3919,7 +4074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -3946,7 +4101,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -3973,7 +4128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -4000,7 +4155,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -4027,7 +4182,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -4054,7 +4209,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -4081,7 +4236,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -4108,7 +4263,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -4135,7 +4290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -4162,7 +4317,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -4189,7 +4344,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -4216,7 +4371,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -4243,7 +4398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -4270,7 +4425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -4297,7 +4452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -4324,7 +4479,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -4351,7 +4506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -4378,12 +4533,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>182</v>
@@ -4402,15 +4557,15 @@
         <v>28</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>182</v>
@@ -4429,15 +4584,15 @@
         <v>28</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>173</v>
@@ -4456,15 +4611,15 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>173</v>
@@ -4483,15 +4638,15 @@
         <v>28</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>182</v>
@@ -4510,15 +4665,15 @@
         <v>28</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="7">
         <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>182</v>
@@ -4537,15 +4692,15 @@
         <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>173</v>
@@ -4564,15 +4719,15 @@
         <v>28</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>193</v>
@@ -4591,15 +4746,15 @@
         <v>28</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>182</v>
@@ -4618,18 +4773,18 @@
         <v>28</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>170</v>
@@ -4645,18 +4800,18 @@
         <v>28</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="7">
         <v>31</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>170</v>
@@ -4672,18 +4827,18 @@
         <v>28</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>170</v>
@@ -4699,18 +4854,18 @@
         <v>28</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>170</v>
@@ -4726,18 +4881,18 @@
         <v>28</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>170</v>
@@ -4753,18 +4908,18 @@
         <v>28</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>170</v>
@@ -4780,18 +4935,18 @@
         <v>28</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="7">
         <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>170</v>
@@ -4807,18 +4962,18 @@
         <v>28</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>170</v>
@@ -4834,114 +4989,226 @@
         <v>28</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>38</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>39</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>40</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="H45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="7">
         <v>41</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>42</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>43</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>44</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>45</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="H50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="7">
         <v>46</v>
       </c>
@@ -4954,7 +5221,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>47</v>
       </c>
@@ -4967,7 +5234,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>48</v>
       </c>
@@ -4980,7 +5247,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>49</v>
       </c>
@@ -4993,7 +5260,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>50</v>
       </c>
@@ -5006,7 +5273,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56" s="7">
         <v>51</v>
       </c>
@@ -5019,7 +5286,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>52</v>
       </c>
@@ -5032,7 +5299,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>53</v>
       </c>
@@ -5045,7 +5312,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>54</v>
       </c>
@@ -5058,7 +5325,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>55</v>
       </c>
@@ -5071,7 +5338,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="7">
         <v>56</v>
       </c>
@@ -5084,7 +5351,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>57</v>
       </c>
@@ -5097,7 +5364,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>58</v>
       </c>
@@ -5110,7 +5377,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <v>59</v>
       </c>
@@ -5123,7 +5390,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <v>60</v>
       </c>
@@ -5136,7 +5403,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B66" s="7">
         <v>61</v>
       </c>
@@ -5149,7 +5416,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>62</v>
       </c>
@@ -5162,7 +5429,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <v>63</v>
       </c>
@@ -5175,7 +5442,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <v>64</v>
       </c>
@@ -5188,7 +5455,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <v>65</v>
       </c>
@@ -5201,7 +5468,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B71" s="7">
         <v>66</v>
       </c>
@@ -5214,7 +5481,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
         <v>67</v>
       </c>
@@ -5227,7 +5494,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
         <v>68</v>
       </c>
@@ -5240,7 +5507,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
         <v>69</v>
       </c>
@@ -5253,7 +5520,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B75" s="2">
         <v>70</v>
       </c>
@@ -5266,7 +5533,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B76" s="7">
         <v>71</v>
       </c>
@@ -5279,7 +5546,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B77" s="2">
         <v>72</v>
       </c>
@@ -5292,7 +5559,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B78" s="2">
         <v>73</v>
       </c>
@@ -5305,7 +5572,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
         <v>74</v>
       </c>
@@ -5318,7 +5585,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B80" s="2">
         <v>75</v>
       </c>
@@ -5331,7 +5598,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B81" s="7">
         <v>76</v>
       </c>
@@ -5344,7 +5611,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B82" s="2">
         <v>77</v>
       </c>
@@ -5357,7 +5624,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B83" s="2">
         <v>78</v>
       </c>
@@ -5370,7 +5637,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B84" s="2">
         <v>79</v>
       </c>
@@ -5383,7 +5650,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B85" s="2">
         <v>80</v>
       </c>
@@ -5396,7 +5663,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B86" s="7">
         <v>81</v>
       </c>
@@ -5409,7 +5676,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B87" s="2">
         <v>82</v>
       </c>
@@ -5422,7 +5689,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B88" s="2">
         <v>83</v>
       </c>
@@ -5435,7 +5702,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B89" s="2">
         <v>84</v>
       </c>
@@ -5448,7 +5715,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B90" s="2">
         <v>85</v>
       </c>
@@ -5461,7 +5728,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B91" s="7">
         <v>86</v>
       </c>
@@ -5474,7 +5741,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
         <v>87</v>
       </c>
@@ -5487,7 +5754,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
         <v>88</v>
       </c>
@@ -5500,7 +5767,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>89</v>
       </c>
@@ -5513,7 +5780,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>90</v>
       </c>
@@ -5526,7 +5793,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B96" s="7">
         <v>91</v>
       </c>
@@ -5539,7 +5806,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
         <v>92</v>
       </c>
@@ -5552,7 +5819,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
         <v>93</v>
       </c>
@@ -5565,7 +5832,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
         <v>94</v>
       </c>
@@ -5578,7 +5845,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
         <v>95</v>
       </c>
@@ -5591,7 +5858,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B101" s="7">
         <v>96</v>
       </c>
@@ -5604,7 +5871,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
         <v>97</v>
       </c>
@@ -5617,7 +5884,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
         <v>98</v>
       </c>
@@ -5630,7 +5897,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
         <v>99</v>
       </c>
@@ -5643,7 +5910,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
         <v>100</v>
       </c>
@@ -5656,7 +5923,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B106" s="7">
         <v>101</v>
       </c>
@@ -5669,7 +5936,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
         <v>102</v>
       </c>
@@ -5682,7 +5949,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
         <v>103</v>
       </c>
@@ -5695,7 +5962,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
         <v>104</v>
       </c>
@@ -5708,7 +5975,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
         <v>105</v>
       </c>
@@ -5721,7 +5988,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B111" s="7">
         <v>106</v>
       </c>
@@ -5734,7 +6001,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
         <v>107</v>
       </c>
@@ -5747,7 +6014,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>108</v>
       </c>
@@ -5760,7 +6027,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>109</v>
       </c>
@@ -5773,7 +6040,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>110</v>
       </c>
@@ -5786,7 +6053,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B116" s="7">
         <v>111</v>
       </c>
@@ -5799,7 +6066,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>112</v>
       </c>
@@ -5812,7 +6079,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="3"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>113</v>
       </c>
@@ -5825,7 +6092,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
         <v>114</v>
       </c>
@@ -5838,7 +6105,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
         <v>115</v>
       </c>
@@ -5851,7 +6118,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B121" s="7">
         <v>116</v>
       </c>
@@ -5864,7 +6131,7 @@
       <c r="I121" s="8"/>
       <c r="J121" s="9"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B122" s="2">
         <v>117</v>
       </c>
@@ -5877,7 +6144,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B123" s="2">
         <v>118</v>
       </c>
@@ -5890,7 +6157,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="3"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B124" s="2">
         <v>119</v>
       </c>
@@ -5903,7 +6170,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B125" s="2">
         <v>120</v>
       </c>
@@ -5916,7 +6183,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B126" s="7">
         <v>121</v>
       </c>
@@ -5929,7 +6196,7 @@
       <c r="I126" s="8"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B127" s="2">
         <v>122</v>
       </c>
@@ -5942,7 +6209,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B128" s="2">
         <v>123</v>
       </c>
@@ -5955,7 +6222,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="3"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B129" s="2">
         <v>124</v>
       </c>
@@ -5968,7 +6235,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B130" s="2">
         <v>125</v>
       </c>
@@ -5981,7 +6248,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B131" s="7">
         <v>126</v>
       </c>
@@ -5994,7 +6261,7 @@
       <c r="I131" s="8"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B132" s="2">
         <v>127</v>
       </c>
@@ -6007,7 +6274,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B133" s="2">
         <v>128</v>
       </c>
@@ -6020,7 +6287,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B134" s="2">
         <v>129</v>
       </c>
@@ -6033,7 +6300,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B135" s="2">
         <v>130</v>
       </c>
@@ -6046,7 +6313,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B136" s="7">
         <v>131</v>
       </c>
@@ -6059,7 +6326,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B137" s="2">
         <v>132</v>
       </c>
@@ -6072,7 +6339,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B138" s="2">
         <v>133</v>
       </c>
@@ -6085,7 +6352,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B139" s="2">
         <v>134</v>
       </c>
@@ -6098,7 +6365,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B140" s="2">
         <v>135</v>
       </c>
@@ -6111,7 +6378,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B141" s="7">
         <v>136</v>
       </c>
@@ -6124,7 +6391,7 @@
       <c r="I141" s="8"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B142" s="2">
         <v>137</v>
       </c>
@@ -6137,7 +6404,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B143" s="2">
         <v>138</v>
       </c>
@@ -6150,7 +6417,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B144" s="2">
         <v>139</v>
       </c>
@@ -6163,7 +6430,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="3"/>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B145" s="2">
         <v>140</v>
       </c>
@@ -6176,7 +6443,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="3"/>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B146" s="7">
         <v>141</v>
       </c>
@@ -6189,7 +6456,7 @@
       <c r="I146" s="8"/>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B147" s="2">
         <v>142</v>
       </c>
@@ -6202,7 +6469,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="3"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B148" s="2">
         <v>143</v>
       </c>
@@ -6215,7 +6482,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="3"/>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B149" s="2">
         <v>144</v>
       </c>
@@ -6228,7 +6495,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="3"/>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B150" s="2">
         <v>145</v>
       </c>
@@ -6241,7 +6508,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="3"/>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B151" s="7">
         <v>146</v>
       </c>
@@ -6254,7 +6521,7 @@
       <c r="I151" s="8"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B152" s="2">
         <v>147</v>
       </c>
@@ -6267,7 +6534,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B153" s="2">
         <v>148</v>
       </c>
@@ -6280,7 +6547,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="3"/>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B154" s="2">
         <v>149</v>
       </c>
@@ -6293,7 +6560,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="3"/>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B155" s="2">
         <v>150</v>
       </c>
@@ -6306,7 +6573,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B156" s="7">
         <v>151</v>
       </c>
@@ -6319,7 +6586,7 @@
       <c r="I156" s="8"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B157" s="2">
         <v>152</v>
       </c>
@@ -6332,7 +6599,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="3"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B158" s="2">
         <v>153</v>
       </c>
@@ -6345,7 +6612,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="3"/>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="2">
         <v>154</v>
       </c>
@@ -6358,7 +6625,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B160" s="2">
         <v>155</v>
       </c>
@@ -6371,7 +6638,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="3"/>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B161" s="7">
         <v>156</v>
       </c>
@@ -6384,7 +6651,7 @@
       <c r="I161" s="8"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B162" s="2">
         <v>157</v>
       </c>
@@ -6397,7 +6664,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="3"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B163" s="2">
         <v>158</v>
       </c>
@@ -6410,7 +6677,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="3"/>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B164" s="2">
         <v>159</v>
       </c>
@@ -6423,7 +6690,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="3"/>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B165" s="2">
         <v>160</v>
       </c>
@@ -6436,7 +6703,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="3"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B166" s="7">
         <v>161</v>
       </c>
@@ -6449,7 +6716,7 @@
       <c r="I166" s="8"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B167" s="2">
         <v>162</v>
       </c>
@@ -6462,7 +6729,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B168" s="2">
         <v>163</v>
       </c>
@@ -6475,7 +6742,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="3"/>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B169" s="2">
         <v>164</v>
       </c>
@@ -6488,7 +6755,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="3"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B170" s="2">
         <v>165</v>
       </c>
@@ -6501,7 +6768,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="3"/>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B171" s="7">
         <v>166</v>
       </c>
@@ -6514,7 +6781,7 @@
       <c r="I171" s="8"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B172" s="2">
         <v>167</v>
       </c>
@@ -6527,7 +6794,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="3"/>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B173" s="2">
         <v>168</v>
       </c>
@@ -6540,7 +6807,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="3"/>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B174" s="2">
         <v>169</v>
       </c>
@@ -6553,7 +6820,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="3"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B175" s="2">
         <v>170</v>
       </c>
@@ -6566,7 +6833,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B176" s="7">
         <v>171</v>
       </c>
@@ -6579,7 +6846,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="9"/>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B177" s="2">
         <v>172</v>
       </c>
@@ -6592,7 +6859,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="3"/>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B178" s="2">
         <v>173</v>
       </c>
@@ -6605,7 +6872,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B179" s="2">
         <v>174</v>
       </c>
@@ -6618,7 +6885,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="3"/>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B180" s="2">
         <v>175</v>
       </c>
@@ -6631,7 +6898,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="3"/>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B181" s="7">
         <v>176</v>
       </c>
@@ -6644,7 +6911,7 @@
       <c r="I181" s="8"/>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B182" s="2">
         <v>177</v>
       </c>
@@ -6657,7 +6924,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="3"/>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B183" s="2">
         <v>178</v>
       </c>
@@ -6670,7 +6937,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B184" s="2">
         <v>179</v>
       </c>
@@ -6683,7 +6950,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="3"/>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B185" s="2">
         <v>180</v>
       </c>
@@ -6696,7 +6963,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B186" s="7">
         <v>181</v>
       </c>
@@ -6709,7 +6976,7 @@
       <c r="I186" s="8"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B187" s="2">
         <v>182</v>
       </c>
@@ -6722,7 +6989,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B188" s="2">
         <v>183</v>
       </c>
@@ -6735,7 +7002,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="3"/>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B189" s="2">
         <v>184</v>
       </c>
@@ -6748,7 +7015,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="3"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B190" s="2">
         <v>185</v>
       </c>
@@ -6761,7 +7028,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="3"/>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B191" s="7">
         <v>186</v>
       </c>
@@ -6774,7 +7041,7 @@
       <c r="I191" s="8"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B192" s="2">
         <v>187</v>
       </c>
@@ -6787,7 +7054,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="3"/>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B193" s="2">
         <v>188</v>
       </c>
@@ -6800,7 +7067,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="3"/>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B194" s="2">
         <v>189</v>
       </c>
@@ -6813,7 +7080,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="3"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B195" s="2">
         <v>190</v>
       </c>
@@ -6826,7 +7093,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B196" s="7">
         <v>191</v>
       </c>
@@ -6839,7 +7106,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B197" s="2">
         <v>192</v>
       </c>
@@ -6852,7 +7119,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B198" s="2">
         <v>193</v>
       </c>
@@ -6865,7 +7132,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="3"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B199" s="2">
         <v>194</v>
       </c>
@@ -6878,7 +7145,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="3"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B200" s="2">
         <v>195</v>
       </c>
@@ -6891,7 +7158,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="3"/>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B201" s="7">
         <v>196</v>
       </c>
@@ -6904,7 +7171,7 @@
       <c r="I201" s="8"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B202" s="2">
         <v>197</v>
       </c>
@@ -6917,7 +7184,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="3"/>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B203" s="2">
         <v>198</v>
       </c>
@@ -6930,7 +7197,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="3"/>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B204" s="2">
         <v>199</v>
       </c>
@@ -6943,7 +7210,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="3"/>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B205" s="2">
         <v>200</v>
       </c>
@@ -6956,7 +7223,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="3"/>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B206" s="7">
         <v>201</v>
       </c>
@@ -6969,7 +7236,7 @@
       <c r="I206" s="8"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B207" s="2">
         <v>202</v>
       </c>
@@ -6982,7 +7249,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="3"/>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B208" s="2">
         <v>203</v>
       </c>
@@ -6995,7 +7262,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="3"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B209" s="2">
         <v>204</v>
       </c>
@@ -7008,7 +7275,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="3"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B210" s="2">
         <v>205</v>
       </c>
@@ -7021,7 +7288,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="3"/>
     </row>
-    <row r="211" spans="2:10">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B211" s="7">
         <v>206</v>
       </c>
@@ -7034,7 +7301,7 @@
       <c r="I211" s="8"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="2:10">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B212" s="2">
         <v>207</v>
       </c>
@@ -7047,7 +7314,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="3"/>
     </row>
-    <row r="213" spans="2:10">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B213" s="2">
         <v>208</v>
       </c>
@@ -7060,7 +7327,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="3"/>
     </row>
-    <row r="214" spans="2:10">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B214" s="2">
         <v>209</v>
       </c>
@@ -7073,7 +7340,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="3"/>
     </row>
-    <row r="215" spans="2:10">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B215" s="2">
         <v>210</v>
       </c>
@@ -7086,7 +7353,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="2:10">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B216" s="7">
         <v>211</v>
       </c>
@@ -7099,7 +7366,7 @@
       <c r="I216" s="8"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="2:10">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B217" s="2">
         <v>212</v>
       </c>
@@ -7112,7 +7379,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="3"/>
     </row>
-    <row r="218" spans="2:10">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B218" s="2">
         <v>213</v>
       </c>
@@ -7125,7 +7392,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="3"/>
     </row>
-    <row r="219" spans="2:10">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B219" s="2">
         <v>214</v>
       </c>
@@ -7138,7 +7405,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="3"/>
     </row>
-    <row r="220" spans="2:10">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B220" s="2">
         <v>215</v>
       </c>
@@ -7151,7 +7418,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="3"/>
     </row>
-    <row r="221" spans="2:10">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B221" s="7">
         <v>216</v>
       </c>
@@ -7164,7 +7431,7 @@
       <c r="I221" s="8"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="2:10">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B222" s="2">
         <v>217</v>
       </c>
@@ -7177,7 +7444,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="3"/>
     </row>
-    <row r="223" spans="2:10">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B223" s="2">
         <v>218</v>
       </c>
@@ -7190,7 +7457,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="2:10">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B224" s="2">
         <v>219</v>
       </c>
@@ -7203,7 +7470,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="3"/>
     </row>
-    <row r="225" spans="2:10">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B225" s="2">
         <v>220</v>
       </c>
@@ -7216,7 +7483,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="3"/>
     </row>
-    <row r="226" spans="2:10">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B226" s="7">
         <v>221</v>
       </c>
@@ -7229,7 +7496,7 @@
       <c r="I226" s="8"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="2:10">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B227" s="2">
         <v>222</v>
       </c>
@@ -7242,7 +7509,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="3"/>
     </row>
-    <row r="228" spans="2:10">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B228" s="2">
         <v>223</v>
       </c>
@@ -7255,7 +7522,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="3"/>
     </row>
-    <row r="229" spans="2:10">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B229" s="2">
         <v>224</v>
       </c>
@@ -7268,7 +7535,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="3"/>
     </row>
-    <row r="230" spans="2:10">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B230" s="2">
         <v>225</v>
       </c>
@@ -7281,7 +7548,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="3"/>
     </row>
-    <row r="231" spans="2:10">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B231" s="7">
         <v>226</v>
       </c>
@@ -7294,7 +7561,7 @@
       <c r="I231" s="8"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="2:10">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B232" s="2">
         <v>227</v>
       </c>
@@ -7307,7 +7574,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="3"/>
     </row>
-    <row r="233" spans="2:10">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B233" s="2">
         <v>228</v>
       </c>
@@ -7320,7 +7587,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="3"/>
     </row>
-    <row r="234" spans="2:10">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B234" s="2">
         <v>229</v>
       </c>
@@ -7333,7 +7600,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="2:10">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B235" s="2">
         <v>230</v>
       </c>
@@ -7346,7 +7613,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="3"/>
     </row>
-    <row r="236" spans="2:10">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B236" s="7">
         <v>231</v>
       </c>
@@ -7359,7 +7626,7 @@
       <c r="I236" s="8"/>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="2:10">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B237" s="2">
         <v>232</v>
       </c>
@@ -7386,14 +7653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O26"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
@@ -7409,27 +7676,27 @@
     <col min="15" max="15" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
-    <row r="4" spans="2:15" ht="13.5" customHeight="1">
+    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E4" s="23" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="19">
         <f ca="1">"2015/9/9"-TODAY()</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
       <c r="G5" s="20"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="8" spans="2:15" ht="14.25" thickBot="1">
+    <row r="8" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
@@ -7437,7 +7704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.25" thickBot="1">
+    <row r="9" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
@@ -7475,7 +7742,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.25" thickTop="1">
+    <row r="10" spans="2:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>1</v>
       </c>
@@ -7502,7 +7769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -7530,7 +7797,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -7554,7 +7821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -7578,7 +7845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -7602,7 +7869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>6</v>
       </c>
@@ -7626,7 +7893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>7</v>
       </c>
@@ -7644,7 +7911,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>8</v>
       </c>
@@ -7662,7 +7929,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>9</v>
       </c>
@@ -7680,7 +7947,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>10</v>
       </c>
@@ -7698,7 +7965,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>11</v>
       </c>
@@ -7716,7 +7983,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>12</v>
       </c>
@@ -7734,7 +8001,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>13</v>
       </c>
@@ -7752,7 +8019,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>14</v>
       </c>
@@ -7770,7 +8037,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>15</v>
       </c>
@@ -7788,7 +8055,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>16</v>
       </c>
@@ -7806,7 +8073,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>17</v>
       </c>
